--- a/src/main/resources/excel/template.xlsx
+++ b/src/main/resources/excel/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\java\ExcelRender\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A455DAF1-DEA2-492F-B4CC-7CFF65F4F477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB926559-9E0D-4729-BF8E-919889A40C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,11 +66,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -359,114 +351,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
